--- a/퇴사자/체불관련 자료.xlsx
+++ b/퇴사자/체불관련 자료.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
   <si>
     <t>2016 연말정산</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -370,6 +370,62 @@
   </si>
   <si>
     <t>의료보험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임금총액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출장비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노동청 계산기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월기본 급여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일 연차수당</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시급 = 월기본급여 / 209(총근무시간 : 8시간 주 5일 근무)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일 수당 = 시급 x 8(시간)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연차수당 계산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진정서 총액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>민사 총액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비용은 노동청에서 보호하는 범위를 벗어남-민사에서 진행해야 함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소득세 없음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -713,6 +769,17 @@
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -725,17 +792,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -759,15 +818,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>143853</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>162694</xdr:rowOff>
+      <xdr:colOff>629628</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>29344</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -784,7 +843,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8839200" y="2409825"/>
+          <a:off x="9886950" y="2066925"/>
           <a:ext cx="7001853" cy="5506219"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1086,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:U48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1771,10 +1830,10 @@
       </c>
     </row>
     <row r="29" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="G29" s="57" t="s">
+      <c r="G29" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="58"/>
+      <c r="H29" s="65"/>
       <c r="I29" s="49"/>
       <c r="J29" s="49"/>
       <c r="K29" s="50">
@@ -1797,10 +1856,10 @@
       <c r="D30" s="1">
         <v>4289900</v>
       </c>
-      <c r="G30" s="57" t="s">
+      <c r="G30" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="58"/>
+      <c r="H30" s="65"/>
       <c r="I30" s="49"/>
       <c r="J30" s="49"/>
       <c r="K30" s="50">
@@ -1819,10 +1878,10 @@
         <f>D30/30</f>
         <v>142996.66666666666</v>
       </c>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="56"/>
+      <c r="H31" s="63"/>
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
       <c r="K31" s="53">
@@ -1911,8 +1970,8 @@
       <c r="H39" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
       <c r="K39" s="16" t="s">
         <v>37</v>
       </c>
@@ -1927,8 +1986,8 @@
       <c r="H40" s="18">
         <v>43178</v>
       </c>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
       <c r="K40" s="17">
         <v>2</v>
       </c>
@@ -2001,14 +2060,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I29"/>
+  <dimension ref="B3:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
@@ -2017,8 +2077,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>67</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
@@ -2031,10 +2097,7 @@
       <c r="E4" s="1">
         <v>4284900</v>
       </c>
-      <c r="F4" s="2">
-        <f>E4*9/30</f>
-        <v>1285470</v>
-      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -2086,7 +2149,7 @@
       <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="57">
         <f>E7/E8</f>
         <v>144434.83146067415</v>
       </c>
@@ -2112,11 +2175,11 @@
       <c r="D11" s="4">
         <v>14556921</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="58">
         <f>E9*30*(E10/356)</f>
         <v>15104799.93056432</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="59">
         <f>E11-D11</f>
         <v>547878.93056431971</v>
       </c>
@@ -2124,58 +2187,73 @@
         <v>75</v>
       </c>
     </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4284900</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="26">
+        <f>E13/209</f>
+        <v>20501.913875598086</v>
+      </c>
+      <c r="G14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="26">
+        <f>E14*8</f>
+        <v>164015.31100478469</v>
+      </c>
+      <c r="G15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
         <v>76</v>
       </c>
-      <c r="D13">
+      <c r="D16">
         <v>9</v>
       </c>
-      <c r="E13">
+      <c r="E16">
         <v>9</v>
       </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="3" t="s">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="63">
-        <f>E9*E13</f>
-        <v>1299913.4831460672</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="59">
+        <f>E15*E16</f>
+        <v>1476137.7990430621</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="64" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="60" t="s">
         <v>79</v>
-      </c>
-      <c r="D18" s="32">
-        <v>3937950</v>
-      </c>
-      <c r="E18" s="32">
-        <v>3937950</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="32">
-        <v>3813895</v>
-      </c>
-      <c r="E19" s="32">
-        <v>3813895</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="64" t="s">
-        <v>81</v>
       </c>
       <c r="D20" s="32">
         <v>3937950</v>
@@ -2185,79 +2263,135 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="32">
+        <v>3813895</v>
+      </c>
+      <c r="E21" s="32">
+        <v>3813895</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="32">
+        <v>3937950</v>
+      </c>
+      <c r="E22" s="32">
+        <v>3937950</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D23" s="32">
         <v>3937950</v>
-      </c>
-      <c r="E21" s="32">
-        <v>3937950</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="32">
-        <v>4045580</v>
-      </c>
-      <c r="E22" s="32">
-        <v>4045580</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="32">
-        <v>5168270</v>
       </c>
       <c r="E23" s="32">
         <v>3937950</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="32">
+        <v>4045580</v>
+      </c>
+      <c r="E24" s="32">
+        <v>4045580</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="32">
+        <v>5168270</v>
+      </c>
+      <c r="E25" s="32">
+        <v>3937950</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E26" s="2">
         <v>1285470</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E25">
-        <v>57820</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E27" s="1">
+        <v>-57820</v>
+      </c>
+      <c r="F27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E26">
-        <v>8356</v>
-      </c>
-      <c r="F26" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E28" s="1">
+        <v>-8356</v>
+      </c>
+      <c r="F28" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E27" s="65">
-        <v>43050</v>
-      </c>
-      <c r="F27" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E29" s="61">
+        <v>-43050</v>
+      </c>
+      <c r="F29" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D28">
-        <v>3784900</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D29" s="42">
-        <f>D28*9/30</f>
-        <v>1135470</v>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="5">
+        <f>SUM(D20:D29)</f>
+        <v>24841595</v>
+      </c>
+      <c r="E30" s="5">
+        <f>SUM(E20:E29)</f>
+        <v>24787519</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="59">
+        <f>E11+E17+E30</f>
+        <v>41368456.729607381</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="51">
+        <v>165000</v>
+      </c>
+      <c r="F33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="26">
+        <f>E31+E33</f>
+        <v>41533456.729607381</v>
       </c>
     </row>
   </sheetData>

--- a/퇴사자/체불관련 자료.xlsx
+++ b/퇴사자/체불관련 자료.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="체불금 계산_0530" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="104">
   <si>
     <t>2016 연말정산</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -426,6 +426,10 @@
   </si>
   <si>
     <t>소득세 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차액</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -433,13 +437,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="#,##0.000000000_ "/>
+    <numFmt numFmtId="181" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -481,7 +486,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -675,6 +680,90 @@
         <color auto="1"/>
       </right>
       <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -689,7 +778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -773,13 +862,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -792,9 +874,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -817,16 +934,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>183910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>629628</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>29344</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>178569</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -843,8 +960,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9886950" y="2066925"/>
-          <a:ext cx="7001853" cy="5506219"/>
+          <a:off x="5695951" y="3355735"/>
+          <a:ext cx="4835524" cy="3804659"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1830,10 +1947,10 @@
       </c>
     </row>
     <row r="29" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="G29" s="64" t="s">
+      <c r="G29" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="65"/>
+      <c r="H29" s="60"/>
       <c r="I29" s="49"/>
       <c r="J29" s="49"/>
       <c r="K29" s="50">
@@ -1856,10 +1973,10 @@
       <c r="D30" s="1">
         <v>4289900</v>
       </c>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="65"/>
+      <c r="H30" s="60"/>
       <c r="I30" s="49"/>
       <c r="J30" s="49"/>
       <c r="K30" s="50">
@@ -1878,10 +1995,10 @@
         <f>D30/30</f>
         <v>142996.66666666666</v>
       </c>
-      <c r="G31" s="62" t="s">
+      <c r="G31" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="63"/>
+      <c r="H31" s="58"/>
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
       <c r="K31" s="53">
@@ -2060,344 +2177,419 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I34"/>
+  <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="2" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="66" t="s">
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="61"/>
+      <c r="C3" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="D3" s="29" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+      <c r="E3" s="78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C4" s="32">
         <v>4284900</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D4" s="33">
         <v>4284900</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+      <c r="E4" s="79"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C5" s="32">
         <v>4284900</v>
       </c>
-      <c r="E5" s="1">
+      <c r="D5" s="33">
         <v>4284900</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+      <c r="E5" s="80"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="1">
+      <c r="C6" s="32">
         <v>4284900</v>
       </c>
-      <c r="E6" s="1">
+      <c r="D6" s="33">
         <v>4284900</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="E6" s="80"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="2">
+      <c r="C7" s="42">
+        <f>SUM(C4:C6)</f>
+        <v>12854700</v>
+      </c>
+      <c r="D7" s="43">
         <f>SUM(D4:D6)</f>
         <v>12854700</v>
       </c>
-      <c r="E7" s="2">
-        <f>SUM(E4:E6)</f>
-        <v>12854700</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+      <c r="E7" s="80"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="2">
+      <c r="C8" s="42">
         <v>89</v>
       </c>
-      <c r="E8" s="2">
+      <c r="D8" s="43">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+      <c r="E8" s="80"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="57">
-        <f>E7/E8</f>
+      <c r="C9" s="31"/>
+      <c r="D9" s="62">
+        <f>D7/D8</f>
         <v>144434.83146067415</v>
       </c>
-      <c r="G9" t="s">
+      <c r="E9" s="80"/>
+      <c r="F9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="2">
+      <c r="D10" s="43">
         <v>1241</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C11" s="3" t="s">
+      <c r="E10" s="80"/>
+    </row>
+    <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="4">
+      <c r="C11" s="36">
         <v>14556921</v>
       </c>
-      <c r="E11" s="58">
-        <f>E9*30*(E10/356)</f>
+      <c r="D11" s="77">
+        <f>D9*30*(D10/356)</f>
         <v>15104799.93056432</v>
       </c>
-      <c r="F11" s="59">
-        <f>E11-D11</f>
+      <c r="E11" s="81">
+        <f>D11-C11</f>
         <v>547878.93056431971</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="61"/>
+      <c r="C13" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="82"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="1">
+      <c r="C14" s="31"/>
+      <c r="D14" s="33">
         <v>4284900</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+      <c r="E14" s="80"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="26">
-        <f>E13/209</f>
+      <c r="C15" s="31"/>
+      <c r="D15" s="63">
+        <f>D14/209</f>
         <v>20501.913875598086</v>
       </c>
-      <c r="G14" t="s">
+      <c r="E15" s="80"/>
+      <c r="F15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="26">
-        <f>E14*8</f>
+      <c r="C16" s="31"/>
+      <c r="D16" s="63">
+        <f>D15*8</f>
         <v>164015.31100478469</v>
       </c>
-      <c r="G15" t="s">
+      <c r="E16" s="80"/>
+      <c r="F16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D16">
+      <c r="C17" s="31">
         <v>9</v>
       </c>
-      <c r="E16">
+      <c r="D17" s="12">
         <v>9</v>
       </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="3" t="s">
+      <c r="E17" s="80"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="59">
-        <f>E15*E16</f>
+      <c r="C18" s="35"/>
+      <c r="D18" s="75">
+        <f>D16*D17</f>
         <v>1476137.7990430621</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+      <c r="E18" s="83"/>
+    </row>
+    <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="60" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="61"/>
+      <c r="C21" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="82"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="32">
+      <c r="C22" s="32">
         <v>3937950</v>
       </c>
-      <c r="E20" s="32">
+      <c r="D22" s="33">
         <v>3937950</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="60" t="s">
+      <c r="E22" s="80"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="32">
+      <c r="C23" s="32">
         <v>3813895</v>
       </c>
-      <c r="E21" s="32">
+      <c r="D23" s="33">
         <v>3813895</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="60" t="s">
+      <c r="E23" s="80"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="32">
+      <c r="C24" s="32">
         <v>3937950</v>
       </c>
-      <c r="E22" s="32">
+      <c r="D24" s="33">
         <v>3937950</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="60" t="s">
+      <c r="E24" s="80"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="32">
+      <c r="C25" s="32">
         <v>3937950</v>
       </c>
-      <c r="E23" s="32">
+      <c r="D25" s="33">
         <v>3937950</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="60" t="s">
+      <c r="E25" s="80"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="32">
+      <c r="C26" s="32">
         <v>4045580</v>
       </c>
-      <c r="E24" s="32">
+      <c r="D26" s="33">
         <v>4045580</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="60" t="s">
+      <c r="E26" s="80"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="32">
+      <c r="C27" s="32">
         <v>5168270</v>
       </c>
-      <c r="E25" s="32">
+      <c r="D27" s="33">
         <v>3937950</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="60" t="s">
+      <c r="E27" s="80"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="2">
+      <c r="C28" s="31"/>
+      <c r="D28" s="43">
         <v>1285470</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E28" s="80"/>
+      <c r="F28" s="80" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E27" s="1">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="66"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="33">
         <v>-57820</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E29" s="80"/>
+      <c r="F29" s="80" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E28" s="1">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="33">
         <v>-8356</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E30" s="80"/>
+      <c r="F30" s="80" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E29" s="61">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="65">
         <v>-43050</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E31" s="80"/>
+      <c r="F31" s="80" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="3" t="s">
+    <row r="32" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="5">
-        <f>SUM(D20:D29)</f>
+      <c r="C32" s="68">
+        <f>SUM(C22:C31)</f>
         <v>24841595</v>
       </c>
-      <c r="E30" s="5">
-        <f>SUM(E20:E29)</f>
+      <c r="D32" s="69">
+        <f>SUM(D22:D31)</f>
         <v>24787519</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
+      <c r="E32" s="84">
+        <f>D32-C32</f>
+        <v>-54076</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="59">
-        <f>E11+E17+E30</f>
+      <c r="C33" s="71"/>
+      <c r="D33" s="76">
+        <f>D11+D18+D32</f>
         <v>41368456.729607381</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C33" s="3" t="s">
+      <c r="E33" s="83"/>
+    </row>
+    <row r="34" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="51">
+      <c r="C35" s="73"/>
+      <c r="D35" s="74">
         <v>165000</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="3" t="s">
+    <row r="36" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="26">
-        <f>E31+E33</f>
+      <c r="C36" s="58"/>
+      <c r="D36" s="75">
+        <f>D33+D35</f>
         <v>41533456.729607381</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="15" max="1048575" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/퇴사자/체불관련 자료.xlsx
+++ b/퇴사자/체불관련 자료.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="체불금 계산_0530" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -444,7 +444,7 @@
     <numFmt numFmtId="177" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="#,##0.000000000_ "/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -478,12 +478,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="20">
@@ -778,7 +790,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -862,21 +874,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -885,33 +884,72 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -936,13 +974,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>183910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>178569</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1262,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:U48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1947,10 +1985,10 @@
       </c>
     </row>
     <row r="29" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="G29" s="59" t="s">
+      <c r="G29" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="60"/>
+      <c r="H29" s="76"/>
       <c r="I29" s="49"/>
       <c r="J29" s="49"/>
       <c r="K29" s="50">
@@ -1973,10 +2011,10 @@
       <c r="D30" s="1">
         <v>4289900</v>
       </c>
-      <c r="G30" s="59" t="s">
+      <c r="G30" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="60"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="49"/>
       <c r="J30" s="49"/>
       <c r="K30" s="50">
@@ -1995,10 +2033,10 @@
         <f>D30/30</f>
         <v>142996.66666666666</v>
       </c>
-      <c r="G31" s="57" t="s">
+      <c r="G31" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="58"/>
+      <c r="H31" s="74"/>
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
       <c r="K31" s="53">
@@ -2177,10 +2215,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H36"/>
+  <dimension ref="B2:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2190,6 +2228,7 @@
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2199,14 +2238,14 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="61"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="28" t="s">
         <v>91</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="67" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2220,7 +2259,7 @@
       <c r="D4" s="33">
         <v>4284900</v>
       </c>
-      <c r="E4" s="79"/>
+      <c r="E4" s="68"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
@@ -2232,7 +2271,7 @@
       <c r="D5" s="33">
         <v>4284900</v>
       </c>
-      <c r="E5" s="80"/>
+      <c r="E5" s="69"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="30" t="s">
@@ -2244,7 +2283,7 @@
       <c r="D6" s="33">
         <v>4284900</v>
       </c>
-      <c r="E6" s="80"/>
+      <c r="E6" s="69"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="30" t="s">
@@ -2258,7 +2297,7 @@
         <f>SUM(D4:D6)</f>
         <v>12854700</v>
       </c>
-      <c r="E7" s="80"/>
+      <c r="E7" s="69"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="30" t="s">
@@ -2270,18 +2309,18 @@
       <c r="D8" s="43">
         <v>89</v>
       </c>
-      <c r="E8" s="80"/>
+      <c r="E8" s="69"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
         <v>72</v>
       </c>
       <c r="C9" s="31"/>
-      <c r="D9" s="62">
+      <c r="D9" s="58">
         <f>D7/D8</f>
         <v>144434.83146067415</v>
       </c>
-      <c r="E9" s="80"/>
+      <c r="E9" s="69"/>
       <c r="F9" t="s">
         <v>65</v>
       </c>
@@ -2296,7 +2335,7 @@
       <c r="D10" s="43">
         <v>1241</v>
       </c>
-      <c r="E10" s="80"/>
+      <c r="E10" s="69"/>
     </row>
     <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="34" t="s">
@@ -2305,149 +2344,143 @@
       <c r="C11" s="36">
         <v>14556921</v>
       </c>
-      <c r="D11" s="77">
-        <f>D9*30*(D10/356)</f>
-        <v>15104799.93056432</v>
-      </c>
-      <c r="E11" s="81">
+      <c r="D11" s="82">
+        <f>D9*30*(D10/365)</f>
+        <v>14732352.808988761</v>
+      </c>
+      <c r="E11" s="87">
         <f>D11-C11</f>
-        <v>547878.93056431971</v>
+        <v>175431.80898876116</v>
       </c>
       <c r="F11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="85"/>
+    </row>
+    <row r="13" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="61"/>
-      <c r="C13" s="28" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="88"/>
+      <c r="C14" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D14" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="82"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="30" t="s">
+      <c r="E14" s="91"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="33">
+      <c r="C15" s="93"/>
+      <c r="D15" s="94">
         <v>4284900</v>
       </c>
-      <c r="E14" s="80"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="30" t="s">
+      <c r="E15" s="95"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="63">
-        <f>D14/209</f>
+      <c r="C16" s="93"/>
+      <c r="D16" s="96">
+        <f>D15/209</f>
         <v>20501.913875598086</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" t="s">
+      <c r="E16" s="95"/>
+      <c r="F16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="30" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="63">
-        <f>D15*8</f>
+      <c r="C17" s="93"/>
+      <c r="D17" s="96">
+        <f>D16*8</f>
         <v>164015.31100478469</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" t="s">
+      <c r="E17" s="95"/>
+      <c r="F17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="30" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C18" s="97">
         <v>9</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D18" s="98">
         <v>9</v>
       </c>
-      <c r="E17" s="80"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="34" t="s">
+      <c r="E18" s="95"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="75">
-        <f>D16*D17</f>
+      <c r="C19" s="100"/>
+      <c r="D19" s="101">
+        <f>D17*D18</f>
         <v>1476137.7990430621</v>
       </c>
-      <c r="E18" s="83"/>
-    </row>
-    <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="3" t="s">
+      <c r="E19" s="102"/>
+    </row>
+    <row r="21" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="61"/>
-      <c r="C21" s="28" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="57"/>
+      <c r="C22" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D22" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="82"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="64" t="s">
+      <c r="E22" s="70"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C23" s="32">
         <v>3937950</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D23" s="33">
         <v>3937950</v>
       </c>
-      <c r="E22" s="80"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="64" t="s">
+      <c r="E23" s="69"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C24" s="32">
         <v>3813895</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D24" s="33">
         <v>3813895</v>
       </c>
-      <c r="E23" s="80"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="64" t="s">
+      <c r="E24" s="69"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="59" t="s">
         <v>81</v>
-      </c>
-      <c r="C24" s="32">
-        <v>3937950</v>
-      </c>
-      <c r="D24" s="33">
-        <v>3937950</v>
-      </c>
-      <c r="E24" s="80"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="64" t="s">
-        <v>82</v>
       </c>
       <c r="C25" s="32">
         <v>3937950</v>
@@ -2455,134 +2488,146 @@
       <c r="D25" s="33">
         <v>3937950</v>
       </c>
-      <c r="E25" s="80"/>
+      <c r="E25" s="69"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="32">
+        <v>3937950</v>
+      </c>
+      <c r="D26" s="33">
+        <v>3937950</v>
+      </c>
+      <c r="E26" s="69"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C27" s="32">
         <v>4045580</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D27" s="33">
         <v>4045580</v>
       </c>
-      <c r="E26" s="80"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="64" t="s">
+      <c r="E27" s="69"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C28" s="32">
         <v>5168270</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D28" s="33">
         <v>3937950</v>
       </c>
-      <c r="E27" s="80"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="64" t="s">
+      <c r="E28" s="69"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="43">
+      <c r="C29" s="31"/>
+      <c r="D29" s="43">
         <v>1285470</v>
       </c>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80" t="s">
+      <c r="E29" s="69"/>
+      <c r="F29" s="69" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="66"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="33">
-        <v>-57820</v>
-      </c>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="30"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="31"/>
       <c r="D30" s="33">
-        <v>-8356</v>
-      </c>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80" t="s">
-        <v>87</v>
+        <v>-57820</v>
+      </c>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="30"/>
       <c r="C31" s="31"/>
-      <c r="D31" s="65">
+      <c r="D31" s="33">
+        <v>-8356</v>
+      </c>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="60">
         <v>-43050</v>
       </c>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80" t="s">
+      <c r="E32" s="69"/>
+      <c r="F32" s="69" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="67" t="s">
+    <row r="33" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="68">
-        <f>SUM(C22:C31)</f>
+      <c r="C33" s="81">
+        <f>SUM(C23:C32)</f>
         <v>24841595</v>
       </c>
-      <c r="D32" s="69">
-        <f>SUM(D22:D31)</f>
+      <c r="D33" s="63">
+        <f>SUM(D23:D32)</f>
         <v>24787519</v>
       </c>
-      <c r="E32" s="84">
-        <f>D32-C32</f>
+      <c r="E33" s="72">
+        <f>D33-C33</f>
         <v>-54076</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="70" t="s">
+    <row r="34" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="76">
-        <f>D11+D18+D32</f>
-        <v>41368456.729607381</v>
-      </c>
-      <c r="E33" s="83"/>
-    </row>
-    <row r="34" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="72" t="s">
+      <c r="C34" s="78"/>
+      <c r="D34" s="66">
+        <f>D11+D19+D33</f>
+        <v>40996009.608031824</v>
+      </c>
+      <c r="E34" s="71"/>
+    </row>
+    <row r="35" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="74">
+      <c r="C36" s="80"/>
+      <c r="D36" s="64">
         <v>165000</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="57" t="s">
+    <row r="37" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="75">
-        <f>D33+D35</f>
-        <v>41533456.729607381</v>
+      <c r="C37" s="74"/>
+      <c r="D37" s="65">
+        <f>D34+D36</f>
+        <v>41161009.608031824</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
